--- a/inst/app/www/FFT-QDC_Framework_MVP_version_20230925.xlsx
+++ b/inst/app/www/FFT-QDC_Framework_MVP_version_20230925.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhsengland.sharepoint.com/sites/CPESandCYPCPES/Shared Documents/Surveys + Work Areas/12. Qualitative Analysis/3. Notts - FFT/Framework development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30cf01616d186177/Documents/Local Githubs/experiencesdashboard/inst/app/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_D98F16408C21DA5C6F08DB5C9810A6EC7902798A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF9EEEE5-FFA4-4F99-84F8-3D8F8ED44E76}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_D98F16408C21DA5C6F08DB5C9810A6EC7902798A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC0B691F-3A8C-47DD-BC37-B386DD873A73}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MVP framework" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="114">
   <si>
     <t>Category</t>
   </si>
@@ -484,10 +484,6 @@
       </rPr>
       <t>'Communication at times could have been better.', 'Improve communication.', 'No communication.', 'Much better communIcatIon wIth communIcatIon needed.', 'A little bit more communication'</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Staff listening, understanding &amp; involving patients
-</t>
   </si>
   <si>
     <t>Comments relating to two-way communication between staff and patients in terms of how well patients feel listened to and understood by staff, the extent to which a personalised approach is taken (i.e. being treated as an individual person rather than a number). This includes if/ how people are involved in decisions about their care and whether they have enough time to do so. It also incorporates comments about whether staff talk to/ spend time with patients and engage with them to provide company.</t>
@@ -2676,16 +2672,16 @@
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="9" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="9" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2696,7 +2692,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2707,7 +2703,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="32" t="s">
         <v>2</v>
       </c>
@@ -2717,7 +2713,7 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
@@ -2737,7 +2733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
         <v>9</v>
       </c>
@@ -2750,7 +2746,7 @@
       <c r="H7" s="30"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
@@ -2773,7 +2769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2784,7 +2780,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="29" t="s">
         <v>18</v>
       </c>
@@ -2797,7 +2793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
@@ -2820,7 +2816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="29" t="s">
         <v>27</v>
       </c>
@@ -2834,7 +2830,7 @@
       </c>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>30</v>
       </c>
@@ -2854,7 +2850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="29" t="s">
         <v>36</v>
       </c>
@@ -2867,7 +2863,7 @@
       <c r="H16" s="30"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="2:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>38</v>
       </c>
@@ -2910,19 +2906,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBEE7D3-4ECA-48BB-A742-BFA7333E6BE7}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="3" max="3" width="96" customWidth="1"/>
-    <col min="4" max="4" width="111.140625" customWidth="1"/>
+    <col min="4" max="4" width="111.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2936,7 +2932,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
@@ -2950,7 +2946,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
@@ -2964,7 +2960,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
@@ -2978,7 +2974,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
@@ -2986,13 +2982,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>2</v>
       </c>
@@ -3003,10 +2999,10 @@
         <v>54</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
@@ -3018,7 +3014,7 @@
       </c>
       <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
@@ -3032,7 +3028,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>9</v>
       </c>
@@ -3046,7 +3042,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
@@ -3060,7 +3056,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
@@ -3068,13 +3064,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
@@ -3082,13 +3078,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>10</v>
       </c>
@@ -3096,13 +3092,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>10</v>
       </c>
@@ -3110,13 +3106,13 @@
         <v>17</v>
       </c>
       <c r="C14" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>18</v>
       </c>
@@ -3130,21 +3126,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>18</v>
       </c>
@@ -3152,13 +3148,13 @@
         <v>22</v>
       </c>
       <c r="C17" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>18</v>
       </c>
@@ -3166,13 +3162,13 @@
         <v>23</v>
       </c>
       <c r="C18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>18</v>
       </c>
@@ -3180,13 +3176,13 @@
         <v>24</v>
       </c>
       <c r="C19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>18</v>
       </c>
@@ -3194,13 +3190,13 @@
         <v>25</v>
       </c>
       <c r="C20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>27</v>
       </c>
@@ -3208,13 +3204,13 @@
         <v>30</v>
       </c>
       <c r="C21" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>27</v>
       </c>
@@ -3222,13 +3218,13 @@
         <v>31</v>
       </c>
       <c r="C22" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>28</v>
       </c>
@@ -3236,13 +3232,13 @@
         <v>32</v>
       </c>
       <c r="C23" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>28</v>
       </c>
@@ -3250,13 +3246,13 @@
         <v>33</v>
       </c>
       <c r="C24" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>36</v>
       </c>
@@ -3264,13 +3260,13 @@
         <v>38</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>36</v>
       </c>
@@ -3278,13 +3274,13 @@
         <v>39</v>
       </c>
       <c r="C26" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>36</v>
       </c>
@@ -3292,13 +3288,13 @@
         <v>40</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>36</v>
       </c>
@@ -3306,13 +3302,13 @@
         <v>41</v>
       </c>
       <c r="C28" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>37</v>
       </c>
@@ -3320,13 +3316,13 @@
         <v>42</v>
       </c>
       <c r="C29" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>37</v>
       </c>
@@ -3334,13 +3330,13 @@
         <v>43</v>
       </c>
       <c r="C30" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>37</v>
       </c>
@@ -3348,13 +3344,13 @@
         <v>44</v>
       </c>
       <c r="C31" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>29</v>
       </c>
@@ -3362,13 +3358,13 @@
         <v>34</v>
       </c>
       <c r="C32" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>29</v>
       </c>
@@ -3376,24 +3372,24 @@
         <v>35</v>
       </c>
       <c r="C33" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3402,28 +3398,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="cccaf3ac-2de9-44d4-aa31-54302fceb5f7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005FAB909D2035A345A9E4149139BE13AC" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="839134d19efc4c3ddedb863d6ac8a598">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e" xmlns:ns3="9d2b163f-2795-4980-a00f-d619f53f7de8" xmlns:ns4="cccaf3ac-2de9-44d4-aa31-54302fceb5f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4681ed9e497e539c7af53a4da4239c32" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3694,10 +3668,45 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="cccaf3ac-2de9-44d4-aa31-54302fceb5f7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE12F67A-4B63-42E1-A654-2EE0AB95B353}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{367A6B7F-254A-4B03-9A54-27973FD9EAA7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e"/>
+    <ds:schemaRef ds:uri="9d2b163f-2795-4980-a00f-d619f53f7de8"/>
+    <ds:schemaRef ds:uri="cccaf3ac-2de9-44d4-aa31-54302fceb5f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3722,22 +3731,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{367A6B7F-254A-4B03-9A54-27973FD9EAA7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE12F67A-4B63-42E1-A654-2EE0AB95B353}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e"/>
-    <ds:schemaRef ds:uri="9d2b163f-2795-4980-a00f-d619f53f7de8"/>
-    <ds:schemaRef ds:uri="cccaf3ac-2de9-44d4-aa31-54302fceb5f7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/app/www/FFT-QDC_Framework_MVP_version_20230925.xlsx
+++ b/inst/app/www/FFT-QDC_Framework_MVP_version_20230925.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30cf01616d186177/Documents/Local Githubs/experiencesdashboard/inst/app/www/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMApe\OneDrive\Documents\Local Githubs\experiencesdashboard\inst\app\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_D98F16408C21DA5C6F08DB5C9810A6EC7902798A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC0B691F-3A8C-47DD-BC37-B386DD873A73}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53A2AE4-B4C0-44B8-8F08-EC2D33F65694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MVP framework" sheetId="1" r:id="rId1"/>
@@ -1112,9 +1112,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Comments relating to the extend to which patients are in physical pain, if and how pain relief is supplied, and whether pain is addressed in a timely and effective way in order to meet needs. </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Positive: </t>
     </r>
@@ -2005,6 +2002,9 @@
   </si>
   <si>
     <t>Did not answer', 'Feedback given', ' ' (i.e. blank text)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments relating to the extent to which patients are in physical pain, if and how pain relief is supplied, and whether pain is addressed in a timely and effective way in order to meet needs. </t>
   </si>
 </sst>
 </file>
@@ -2668,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2713,7 +2713,7 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="H7" s="30"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>30</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="H16" s="30"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="2:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>38</v>
       </c>
@@ -2906,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBEE7D3-4ECA-48BB-A742-BFA7333E6BE7}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2982,10 +2982,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2999,7 +2999,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -3196,200 +3196,200 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>27</v>
+    <row r="21" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C23" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C25" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B32" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C32" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="19" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+      <c r="D33" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="19" t="s">
+      <c r="B34" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="19" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="19" t="s">
+      <c r="D34" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3398,6 +3398,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="cccaf3ac-2de9-44d4-aa31-54302fceb5f7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005FAB909D2035A345A9E4149139BE13AC" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="839134d19efc4c3ddedb863d6ac8a598">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e" xmlns:ns3="9d2b163f-2795-4980-a00f-d619f53f7de8" xmlns:ns4="cccaf3ac-2de9-44d4-aa31-54302fceb5f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4681ed9e497e539c7af53a4da4239c32" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3668,45 +3690,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="cccaf3ac-2de9-44d4-aa31-54302fceb5f7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{367A6B7F-254A-4B03-9A54-27973FD9EAA7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE12F67A-4B63-42E1-A654-2EE0AB95B353}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e"/>
-    <ds:schemaRef ds:uri="9d2b163f-2795-4980-a00f-d619f53f7de8"/>
-    <ds:schemaRef ds:uri="cccaf3ac-2de9-44d4-aa31-54302fceb5f7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3731,9 +3718,22 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE12F67A-4B63-42E1-A654-2EE0AB95B353}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{367A6B7F-254A-4B03-9A54-27973FD9EAA7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e"/>
+    <ds:schemaRef ds:uri="9d2b163f-2795-4980-a00f-d619f53f7de8"/>
+    <ds:schemaRef ds:uri="cccaf3ac-2de9-44d4-aa31-54302fceb5f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/app/www/FFT-QDC_Framework_MVP_version_20230925.xlsx
+++ b/inst/app/www/FFT-QDC_Framework_MVP_version_20230925.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMApe\OneDrive\Documents\Local Githubs\experiencesdashboard\inst\app\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30cf01616d186177/Documents/Local Githubs/experiencesdashboard/inst/app/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53A2AE4-B4C0-44B8-8F08-EC2D33F65694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{B224D588-DC53-413E-B753-C2B87B27B03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D890770-AD7B-458A-A93B-29D45F5FC057}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MVP framework" sheetId="1" r:id="rId1"/>
@@ -2143,7 +2143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2159,6 +2159,126 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF330072"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7C2855"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE2573"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8A1538"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED8B00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF005EB8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3D9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1C9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8E0EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA291C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6C0BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB81C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEDC5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A9CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDF9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFECD1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009639"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9FFDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9D7E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7E5EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2262,51 +2382,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2340,17 +2417,134 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2358,6 +2552,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF9D7E2"/>
+      <color rgb="FFF2A8C1"/>
+      <color rgb="FFF7E5EE"/>
+      <color rgb="FF8A1538"/>
+      <color rgb="FFC9FFDE"/>
+      <color rgb="FF009639"/>
+      <color rgb="FFFFECD1"/>
+      <color rgb="FFED8B00"/>
+      <color rgb="FFEECADD"/>
+      <color rgb="FF7C2855"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2367,6 +2575,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2668,221 +2880,218 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="9" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="16" customWidth="1"/>
+    <col min="2" max="8" width="22.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="F7" s="29" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="F7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="I10" s="13" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="I10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="E13" s="29" t="s">
+      <c r="C13" s="43"/>
+      <c r="E13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="H13" s="29" t="s">
+      <c r="F13" s="27"/>
+      <c r="H13" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="31"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="45" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="G16" s="29" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="G16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="2:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="53" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2906,7 +3115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBEE7D3-4ECA-48BB-A742-BFA7333E6BE7}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2919,476 +3128,476 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3398,28 +3607,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="cccaf3ac-2de9-44d4-aa31-54302fceb5f7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005FAB909D2035A345A9E4149139BE13AC" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="839134d19efc4c3ddedb863d6ac8a598">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e" xmlns:ns3="9d2b163f-2795-4980-a00f-d619f53f7de8" xmlns:ns4="cccaf3ac-2de9-44d4-aa31-54302fceb5f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4681ed9e497e539c7af53a4da4239c32" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3690,10 +3877,45 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="cccaf3ac-2de9-44d4-aa31-54302fceb5f7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE12F67A-4B63-42E1-A654-2EE0AB95B353}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{367A6B7F-254A-4B03-9A54-27973FD9EAA7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e"/>
+    <ds:schemaRef ds:uri="9d2b163f-2795-4980-a00f-d619f53f7de8"/>
+    <ds:schemaRef ds:uri="cccaf3ac-2de9-44d4-aa31-54302fceb5f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3718,22 +3940,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{367A6B7F-254A-4B03-9A54-27973FD9EAA7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE12F67A-4B63-42E1-A654-2EE0AB95B353}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e"/>
-    <ds:schemaRef ds:uri="9d2b163f-2795-4980-a00f-d619f53f7de8"/>
-    <ds:schemaRef ds:uri="cccaf3ac-2de9-44d4-aa31-54302fceb5f7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/app/www/FFT-QDC_Framework_MVP_version_20230925.xlsx
+++ b/inst/app/www/FFT-QDC_Framework_MVP_version_20230925.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30cf01616d186177/Documents/Local Githubs/experiencesdashboard/inst/app/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{B224D588-DC53-413E-B753-C2B87B27B03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D890770-AD7B-458A-A93B-29D45F5FC057}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{B224D588-DC53-413E-B753-C2B87B27B03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF505C4-B883-4205-B767-A7197CC0AEFD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MVP framework" sheetId="1" r:id="rId1"/>
     <sheet name="MVP framework details" sheetId="2" r:id="rId2"/>
+    <sheet name="Sub-category examples" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sub-category examples'!$A$1:$D$34</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="178">
   <si>
     <t>Category</t>
   </si>
@@ -2005,6 +2009,1595 @@
   </si>
   <si>
     <t xml:space="preserve">Comments relating to the extent to which patients are in physical pain, if and how pain relief is supplied, and whether pain is addressed in a timely and effective way in order to meet needs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments relating to the extend to which patients are in physical pain, if and how pain relief is supplied, and whether pain is addressed in a timely and effective way in order to meet needs. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Positive: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'I felt safe and reassured.', 'I now feel like I have a safety net and fully supported.', 'You kept in touch with me, which make me feel safe. ', 'I think my time spent in here was great, didn't feel unsafe', 'I felt safe and in good hands.', Lovely ward felt safe in the care provided.'</t>
+    </r>
+  </si>
+  <si>
+    <t>Longer-Examples</t>
+  </si>
+  <si>
+    <r>
+      <t>Positive:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Arranged transport for me', 'Excellent safe drivers and so helpful in every way.', 'The driver drove with great consideration to the pain in my arm.', 'I attended with no family members and I was helped from getting patient transport on visit and return.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Negative:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'All ok except no transport home- I have had it in the past', ' 'Other than giving all the drivers bigger cars, not a lot.', 'The taxi drivers do not help getting in and out of car.', 'I was advised to make my own way to hospital despite having a heart rate over 180 beats per minute and breathlessness.', 'The ambulance has terrible suspension as to be uncomfortable', 'Sometime transport not coming on time.', 'Following the sat - new system too rigorously. Took too long for journey home.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Positive: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'it was brilliant that I could go to my local surgery instead of having to go to the hospital', 'Convenient location', 'The location is easy to find.', 'Excellent lay out and all well signposted.', 'onhand to direct you where you need to go.', 'directions to ward (in letter very good)'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Negative/wishlist:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'My closest hospital would have been my preferred choIce because of vIsItIng.', 'Having to travel 15 miles for a relatively minor matter was not good.', 'Put a map showing location of service, it is hard to find as postcode does not match google maps.','Better directions to the department.', 'Better signage as you drive around', 'Given wrong direction to department which made me late.', 'It would be helpful to have the endocronology department clearly signposted through the hospital'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Positive:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'food been good and plenty to chose from', 'Great facilities to hydrate and feed parents too', 'The paramedics took my mam some food as they were there a long time.', 'food was delicious added bonus'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mixed or neutral:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Food varies - sometimes good and sometimes not.', 'Food is fair to (only one chips not quite cooked)', 'Food - mostly OK, pork yesterday was great.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative/ wishlist: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'food got very repetItIve  a varIatIon would of been nIce', 'As a diabetic the high carb food was a disaster', 'not enough fresh fruIt, better salads', 'Meals should be served hot.', 'Quite often patient missed lunch or supper as wasn't asked', 'Only having use of one hand, food should be cut up', 'the confectionary machines could have been nearer to the patients for a treat', 'a toaster in parents kitchen wouls be useful.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Positive: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Staff helped with my release &amp; resettlement', 'Going out on leave with fellow patients and family.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative/ wishlist: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Would like to have been able to use escorted leave more.', 'Stop keeping us locked up over 23hrs a day, doing damage to everyone's mental health', 'Release.', 'Some patients were allowed phone charger and others not.', 'less restriction because they affect me greatly.', 'Allow us more freedoms, it just seemed so unnecessary to be under so many security measures. ', 'The mental health act itself is what made the experience bad.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Positive: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'it was a nice distraction to have the TV on.', 'the activities coordinator put the subtitles on the tv, due to me being hard of hearing, which was great to be able to watch the news.', 'my son was even given the PS4!'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative/ wishlist:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'There are no tv's or hospital radios any more on the ward and they could do with replacing them.', 'More access to internet.', 'the tv is so high priced its on par with stealing.', 'Better WiFi.', 'A D.V.D in the room would have great as there are only a few channels on the T.V.' </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Positive:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Able to park safely.', 'Free parking', 'Easy to park'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Not much parking available a the relevant area.', 'I was turned away from parking in the main car park even though there was 5 empty disabled bays.', 'More disabled parking or wider spaces.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Positive:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'lovely environment', 'The facilities are very good', 'Beds are very comfy', 'Atmosphere - home from home.', 'Having a private room helps…', 'It's veyr colourful and makes kids happy.', 'The room was well maintained', 'I love the security protocols for the unit as it feels very safe.', 'Prompt delivery of equipment.', 'grab raIls fItted very excellent servIce', 'They were very helpful In gettIng equIpment that was needed to stay at home.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative/ wishlist: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'I find the seats in that ambulance rather uncomfortable but this is a very minor niggle.', 'not that comfortable in a chair. Bed would have been better', 'Better bed linen.', 'The reception bit could be made bigger', 'There doesn't' seem to be a lot of space anywhere.',  'When you're there for a very long stay, your body ends up aching because of how poor the mattress and sofa bed quality is', 'More one to ones in private. Maybe single rooms.', 'It would be good if an Ambulance had blinds for privacy.',  'Reinforcing that knocking on the door and walking in without go ahead is  unacceptable.', 'Your building could do with redecorating and new carpets!', 'Fire door propped open with chair.', 'Keep a better check on personal possessions', 'Maintenance issues aren't acted on quickly enough.', 'Steps in garden identified as a risk still to be addressed', 'Making sure enough of correct dressings in the home.', 'There is frequently an issue about having the necessary bandages. The nurses on the front line always resolve this, but they would be assisted by a better supply chain.', 'They could do with up-to-date equipment.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Positive: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'when the staff came in through the night they were very quiet so they didn't wake my daughter up.', ' The ward was lovely and having a side room was amazing as it meant that I could sleep and rest without the hustle and bustle of a general ward.', 'Peaceful environment, not too hot', 'nice cool breeze with air con'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative/ wishlist: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Less noise with doors banging.'', 'It was too busy and noisy on the ward, not conducive to a resting atmosphere.', 'Temperature of room wasn't good for baby but did get sorted', 'get heater fixed in the ambulance ', 'Turned the air con off, who needs air con at 3am?', 'Not too bright lights when being woken up in a morning.', 'lIghts In corrIdor could be turned off at nIght', 'The eqipment smelt I don't know if there is any way of removing the smell in between users, but it would be an improvement.', 'There was a drain smell in my en-suite bathroom.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Positive: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'the cleaning was thorough', 'Nice ward was clean and tidy. Toilets was clean and the bay in general.', 'The ambulance was very clean.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Be more efficient cleaning wise, it was dirty', 'Wiping bed tables , did this myself as was not done during my 3 day stay.', 'it was unclean &amp; when I complained it wasn't addressed',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Masks not effective &amp; not worn correctly. No social distancing.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Positive: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Because everyone paid attention to me and provided pain relief in a timely manner', 'Pain control was really good', 'The podiatry lady was very kind and thoughtful of my pain and she made me understand how I could make my pain less'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Got rid of pain patch and pain for me, but don't think the tablets that replace the patch are strong enough to get me through the day.', 'left over the weekend with lots of disconfort and pain, had to wait untl monday for the cast to be trimmed and adjusted.', 'I was not happy with how the practitioner dismissed my pain and stated that that pain was simply just in my head.', 'Left for hours without pain relief when in agony, despite repeated requests for pain relief. '</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Positive:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'medication prescribing was good', 'Wrote medications promptly.', 'Yes you told me what the medication was for, how much to take, when to take it, and how it might make me feel.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative/ wishlist: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'They didn't give out medication when they should as they didn't have it for 2 doses.', 'Sadly there is a strong reliance on medication and some medication can interfere quite strongly with your daily life due to the side effects', 'Have now called twice to request a medication review (as I was told to), with no response', 'All is good except, waiting on meds at weekend', 'The pharmacy is to slow', 'Sometimes things get missed in handovers and have had to ask for meds', 'Timing of meds late at night not appropriate for children.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Positive:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'On discharge I had a clear plan and felt more optimistic about going forward than I have in a long time.', 'Good follow up care.', 'Discharge process was timely and instructions for follow up were clear, thanks to all involved.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative/ wishlist: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'When you leave... jeez! Like you leave and they say oh we've made sure you have this, this and this support. But as soon as you walk out those doors. You have nobody!', 'Discharger quicker.', 'Perhaps some warning about going home.  I thought I was staying another day', 'You discharge service users too early so they end up being referred back to you in a worse way meaning more support needed.', 'Improve the discharge process.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Positive: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'detailed blood tests are done to diagnose the symptoms','The person helped me get to the right person and got the appointment that I require', 'The operator was very helpful and organised a call with a GP swiftly.', 'good liaison with hospital at home service and GP', ' 'ConsIstency of nurse has been really helpful.', 'Great communication between staff.', 'I was seen promptly, given a diagnosis and future plan of action'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'had to answer scripted questions which we felt were not relevant.', 'I feel I should have had an MRI scan or lumber puncture to confirm diagnosis', 'Feedback to referrer accurately, and promptly giving an update. Improve communication between primary secondary care.', ‘I was referred 18 months ago but nothing. I was told that the doctor was going to chase up my treatment, she warned me that I may get lost in the system though.', ‘My 17 year old son was told that as he was turning 18 soon there was no point in offering him any treatment. He would have to wait until he was 18 and then get in touch with the adult service.', 'Always seeing different people, continuity would be good. One nurse turned up having not read my notes so she wasn't as helpful as could have been.', 'sometimes miscommunication between nurses and doctors', 'Communication around staff handovers as there has been a lot of repeating myself', 'care plan non existence.', 'The ambulance crew ignored my daughters asthma plan given to me by asthma specialist.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Positive:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'listens to me and my wife about my condition, to me that is important, some services do not take wife's input into consideration.', 'Contact made wIth patIents famIly and they are extremely happy wIth the support and care that they receIve from the CommunIty Nurses', 'It has been nice to have visitors.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative/ wishlist: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Engage with carer where appropriate, as it is not always apparent from talking to the patient how serious the issues are','Carer Support Group is brilliant', 'Have more time off the ward with my family.', 'The chance to video call family was never offered.', 'just having a family member being able to attend would of maybe helped.', 'We were very grateful of the accommodation that was organised for us and that we could stay with our son.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Positive: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Service was clear and concise. About projected plan, trajectory and outcome.', 'Been kept informed all stages of treatment', 'The good thing was that when you said you would do something you did it'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative/ wishlist: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Communication is often contradictory, phone calls are not returned, and I am made to feel like a problem, when I try to clarify what is happening. Promises of treatment are made regularly but never fulfilled.', 'Could get more information about what's happening with my care. Bit vague in places.', 'The adviser I spoke to kept me up to date when ambulance would arrive'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Positive: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'leaflets - aids to memory', 'The sessions are full of practical information and are very useful for future meal planning.', 'It has given me some ideas to make things better i.e. a weighted blanket for times of anxiety.', 'Informative session, well presented.', 'ExcerIse sheets helpIng me and other thIngs to help me walk.', 'Good materIal, well presented.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative/ wishlist: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'May be helpful to have the food groups on a leaflets as I wont remember.', 'Email exercises to patient.', 'Clarification and information on COPD ( I've used the internet to source the information)'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Positive: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Thorough, explained everything well.', 'Questions answered thoroughly.', 'Explained my care to me in a way that I could understand.', 'The staff were very good, and gave me the information that I needed.', 'Everything was explained well. The nurse managed to get the surgeon back out from theatre to speak to me when I raised the fact that I still had some concerns.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Explaining better so I can understand.', 'Language barrier &amp; bad communication.', 'I was repeating the same questions numerous times and still wasn't getting an answer.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Positive:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'She listened to how I felt &amp; understood me. Because she understood she was able to provide me with care, support &amp; techniques that were very personal to me', 'I really felt listened to and felt that they understood my problem.', ' Liked how the staff took time out to talk to me.', 'Treated with care and as an individual not just a patient.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative/ wishlist: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Take time out to talk to patients', 'Treat patients as people, not a number. Listen to patients and make them feel heard.', 'Listen to service users and not be so judgemental. We know how we feel not you.', 'They could have listened and taken my concerns seriously and we would have avoided the entire incident in the first place.', 'Let patients be involved more in their care.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Positive: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'very good communication', 'The communIcatIon was excellent made me feel confIdent', 'Communication', 'brilliant communication given throughout.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative/ wishlist: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Communication at times could have been better.', 'Improve communication.', 'No communication.', 'A little bit more communication'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Positive:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'There was little waiting time', 'I was taken aback when my psychiatrist was able to see me a lot sooner at a time of crisis', 'most impressive was from arriving in the ambulance to being assessed and treated at a very fast speed', 'Time-response was within two hours of referral.', 'Ambulance arrived quickly'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Shorter waiting times for treatment, I will have to wait 18 months before it starts', 'Ambulance could have arrived sooner.', 'A two hour waiting time has led to health problems.', 'The telephone lady said would have to wait, but saying it was a stroke should have been quicker.', 'I got no help, the lady said she doesnt know what to suggest and that I cant get help unless Im at crisis point.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Positive: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Appointment on time', '1 1/2 hour appointment gave plenty of time for dIscussIons.', 'Good to be forewarned of vIsIt.','We also appreciated that even though we arrived early you for saw us and not making us wait until the appointment time'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative/ wishlist:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'want appointments closer together, they are too far apart', 'not enough home visits', 'Would like a longer session', 'Offer  varied time slots to fit around work.', 'do appointments according to times given as it gets frustrating waiting.', 'I was not made aware that my appointment could not be kept until I arrived', 'cancelled my appointment twice without telling me.', 'Appointment details given over phone - no physical evidence/reminder which could cause problems. ', 'Be more specific with time of visit, i.e. early or late morning'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Positive: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'The team have obviously been trained to a an extremely high level.', 'Assessment, advice and support from qualified specialist.', 'Felt very reassured by her attItude and knowledge.', 'Excellent sessIon -evIdence based teachIng.', 'Physio was very knowledgeable and understood my problem.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Negative: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Hygiene awareness for the staff.', 'A few members of staff could do with more training on compassion and a bit more knowledge on how to handle different types of scenarios.', 'More autism awareness and children with additional needs training needed.', 'The person asking the questions is not medically trained'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Positve: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Department is well staffed.', 'Staff are always there to help if you need then nothing is ever too much trouble.', 'Someone comes quickly when ring call bell.', 'attentive nursing team', 'Always willing to help no matter what it is.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Mixed: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'All of the nurses went above and beyond despite them being understaffed', 'The staff were very attentive and encouraging . I did feel that they were under a lot of pressure Due to staff shortages, but they coped well'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative/ wishlist: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Maybe more nurses on the ward on weekends', 'No play input as no play specialist around.', 'All my requests were responded to, although not  always in a timely manner.', 'needs an overhaul as there seems to be more management than actual medical staff', 'Every A&amp;E to have psychiatric staff available', 'Would be good to have cover for support where staff are off for extended periods due to holidays and sickness.', 'Need more staff from primary health care, vacant position needs to be filled.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Positive: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'All staff friendly and helpful.', 'nurse very kind, polite', 'Polite, professional, caring', 'All staff were FrIendly and carIng and treated the patIent wIth dIgnIty and respect.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mixed: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'90% of staff were fantastic, helpful and supportive Small minority the opposite.', 'We spoke to 3 members of the team. The first 2 were extremely rude, the 3rd gentleman was much more kind.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Be professional, kind and supportive. The doctor who dealt with us was none of these things.', 'The person on the phone was also extremely blunt and sarcastic', 'All your nurses are so RUDE and patronising'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Positive:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Well organised.', 'well run facility', 'Always quick and efficient.', 'Straight forward.', 'Everything smooth running'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Negative/ wishlist:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'So unorganised and expect more', 'Be more efficient', 'I would love to see a service that works efficiently.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Negative:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'More Govt. funding to help you do your job better', 'Make resources too alleviate pressure and prevent good staff from leaving or losing love for their job.', 'Add more funding.', ' No staff are at fault instead they are failed by the resources they have.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Positive: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'You are always there on the end of a phone or email.' , 'Good access to staff and was able to contact when needed.', 'am confIdent that If any Issues arIse that I can rIng and they wIll be addressed.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Mixed:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'I wasn't given a contact number. I did email the referral centre and they helped.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Sitting on hold for nearly 2 hours is not right ', 'I am begging for help and nobody is helping me. I don't know where to go or who to contact.', 'Takes time to get through and tempted to use 999.', 'You could and should update the information given on the website. The telephone number given was out of date', 'Crisis need to stop asking to phone you back when you are in crisis.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Positive: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Great to have face to face review', 'Enjoy and prefer virtual appointments.', 'I am lucky to have a psychiatrist visit me at home.', 'I was able to stay at work and got the appropriate treatment and advice over the phone. Much better use of my time.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Mixed: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Sometimes the video conferences did not work, but I was happy to take the sessions by phone.' 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative/ wishlist: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'I think facetime appts would be better than just the phone. Sometimes hard to visualise exercise advice.', 'Im autistic and don't like having to talk on the phone.Nothing is in place to accommodate me.', 'Need face to face appts'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Positive:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ‘Very pleased with the service received.’, ‘Thank you’, ‘Very good’, ‘Care was fantastic!’, ‘Cannot think how you could do any better’, 'Everyone was very good.', 'Nice Staff.', 'Staff are great', 'The nurses were superb!', 'A bIg thank you to staff', 'Amazing staff', 'Angels on this ward', 'Been well looked after'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Positive:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'I like the ward activities, they keep me busy.', 'Activities are good, colouring, painting.', 'Lots to do.',  'the activities keep us stimulated .', 'Play specialists came round to give us some toys when we arrived to keep her entertained for the wait.', 'Could go outdoors for cigarettes', 'I like the grounds, trees and plants and a garden are really good.', 'Go out when needed to exercise'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negative/ wishlist: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'More activities needed for full week.', 'Get off ward more and do more social stuff.', 'Too much time when nothing is happening.', 'would like the playroom to be open', 'My husband is not  allowed to get outside for any fresh air', 'More walks/outdoor activities.', 'Allow air breaks or smoke breaks'</t>
+    </r>
+  </si>
+  <si>
+    <t>POSITIVE: 'I felt safe and reassured.', 'I now feel like I have a safety net and fully supported.', 'You kept in touch with me, which make me feel safe. ', 'I think my time spent in here was great, didn't feel unsafe', 'I felt safe and in good hands.', Lovely ward felt safe in the care provided.'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'Well organised.', 'well run facility', 'Always quick and efficient.', 'Straight forward.', 'Everything smooth running'
+NEGATIVE/ WISHLIST: 'So unorganised and expect more', 'Be more efficient', 'I would love to see a service that works efficiently.'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'Appointment on time', '1 1/2 hour appointment gave plenty of time for dIscussIons.', 'Good to be forewarned of vIsIt.','We also appreciated that even though we arrived early you for saw us and not making us wait until the appointment time'
+NEGATIVE/ WISHLIST: 'want appointments closer together, they are too far apart', 'not enough home visits', 'Would like a longer session', 'Offer  varied time slots to fit around work.', 'do appointments according to times given as it gets frustrating waiting.', 'I was not made aware that my appointment could not be kept until I arrived', 'cancelled my appointment twice without telling me.', 'Appointment details given over phone - no physical evidence/reminder which could cause problems. ', 'Be more specific with time of visit, i.e. early or late morning'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'very good communication', 'The communIcatIon was excellent made me feel confIdent', 'Communication', 'brilliant communication given throughout.'
+NEGATIVE/ WISHLIST: 'Communication at times could have been better.', 'Improve communication.', 'No communication.', 'A little bit more communication'</t>
+  </si>
+  <si>
+    <t>POSITIVE:'She listened to how I felt &amp; understood me. Because she understood she was able to provide me with care, support &amp; techniques that were very personal to me', 'I really felt listened to and felt that they understood my problem.', ' Liked how the staff took time out to talk to me.', 'Treated with care and as an individual not just a patient.'
+NEGATIVE/ WISHLIST: 'Take time out to talk to patients', 'Treat patients as people, not a number. Listen to patients and make them feel heard.', 'Listen to service users and not be so judgemental. We know how we feel not you.', 'They could have listened and taken my concerns seriously and we would have avoided the entire incident in the first place.', 'Let patients be involved more in their care.'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'leaflets - aids to memory', 'The sessions are full of practical information and are very useful for future meal planning.', 'It has given me some ideas to make things better i.e. a weighted blanket for times of anxiety.', 'Informative session, well presented.', 'ExcerIse sheets helpIng me and other thIngs to help me walk.', 'Good materIal, well presented.'
+NEGATIVE/ WISHLIST: 'May be helpful to have the food groups on a leaflets as I wont remember.', 'Email exercises to patient.', 'Clarification and information on COPD ( I've used the internet to source the information)'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'Service was clear and concise. About projected plan, trajectory and outcome.', 'Been kept informed all stages of treatment', 'The good thing was that when you said you would do something you did it'
+NEGATIVE/ WISHLIST: 'Communication is often contradictory, phone calls are not returned, and I am made to feel like a problem, when I try to clarify what is happening. Promises of treatment are made regularly but never fulfilled.', 'Could get more information about what's happening with my care. Bit vague in places.', 'The adviser I spoke to kept me up to date when ambulance would arrive'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'listens to me and my wife about my condition, to me that is important, some services do not take wife's input into consideration.', 'Contact made wIth patIents famIly and they are extremely happy wIth the support and care that they receIve from the CommunIty Nurses', 'It has been nice to have visitors.'
+NEGATIVE/ WISHLIST: 'Engage with carer where appropriate, as it is not always apparent from talking to the patient how serious the issues are','Carer Support Group is brilliant', 'Have more time off the ward with my family.', 'The chance to video call family was never offered.', 'just having a family member being able to attend would of maybe helped.', 'We were very grateful of the accommodation that was organised for us and that we could stay with our son.'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'Staff helped with my release &amp; resettlement', 'Going out on leave with fellow patients and family.'
+NEGATIVE/ WISHLIST: 'Would like to have been able to use escorted leave more.', 'Stop keeping us locked up over 23hrs a day, doing damage to everyone's mental health', 'Release.', 'Some patients were allowed phone charger and others not.', 'less restriction because they affect me greatly.', 'Allow us more freedoms, it just seemed so unnecessary to be under so many security measures. ', 'The mental health act itself is what made the experience bad.'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'On discharge I had a clear plan and felt more optimistic about going forward than I have in a long time.', 'Good follow up care.', 'Discharge process was timely and instructions for follow up were clear, thanks to all involved.'
+NEGATIVE/ WISHLIST: 'When you leave... jeez! Like you leave and they say oh we've made sure you have this, this and this support. But as soon as you walk out those doors. You have nobody!', 'Discharger quicker.', 'Perhaps some warning about going home.  I thought I was staying another day', 'You discharge service users too early so they end up being referred back to you in a worse way meaning more support needed.', 'Improve the discharge process.'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'medication prescribing was good', 'Wrote medications promptly.', 'Yes you told me what the medication was for, how much to take, when to take it, and how it might make me feel.'
+NEGATIVE/ WISHLIST: 'They didn't give out medication when they should as they didn't have it for 2 doses.', 'Sadly there is a strong reliance on medication and some medication can interfere quite strongly with your daily life due to the side effects', 'Have now called twice to request a medication review (as I was told to), with no response', 'All is good except, waiting on meds at weekend', 'The pharmacy is to slow', 'Sometimes things get missed in handovers and have had to ask for meds', 'Timing of meds late at night not appropriate for children.'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'I like the ward activities, they keep me busy.', 'Activities are good, colouring, painting.', 'Lots to do.',  'the activities keep us stimulated .', 'Play specialists came round to give us some toys when we arrived to keep her entertained for the wait.', 'Could go outdoors for cigarettes', 'I like the grounds, trees and plants and a garden are really good.', 'Go out when needed to exercise'
+NEGATIVE/ WISHLIST: 'More activities needed for full week.', 'Get off ward more and do more social stuff.', 'Too much time when nothing is happening.', 'would like the playroom to be open', 'My husband is not  allowed to get outside for any fresh air', 'More walks/outdoor activities.', 'Allow air breaks or smoke breaks'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSITIVE: 'it was a nice distraction to have the TV on.', 'the activities coordinator put the subtitles on the tv, due to me being hard of hearing, which was great to be able to watch the news.', 'my son was even given the PS4!'
+NEGATIVE/ WISHLIST: 'There are no tv's or hospital radios any more on the ward and they could do with replacing them.', 'More access to internet.', 'the tv is so high priced its on par with stealing.', 'Better WiFi.', 'A D.V.D in the room would have great as there are only a few channels on the T.V.' </t>
+  </si>
+  <si>
+    <t>POSITIVE: 'when the staff came in through the night they were very quiet so they didn't wake my daughter up.', ' The ward was lovely and having a side room was amazing as it meant that I could sleep and rest without the hustle and bustle of a general ward.', 'Peaceful environment, not too hot', 'nice cool breeze with air con'
+NEGATIVE/ WISHLIST: 'Less noise with doors banging.'', 'It was too busy and noisy on the ward, not conducive to a resting atmosphere.', 'Temperature of room wasn't good for baby but did get sorted', 'get heater fixed in the ambulance ', 'Turned the air con off, who needs air con at 3am?', 'Not too bright lights when being woken up in a morning.', 'lIghts In corrIdor could be turned off at nIght', 'The eqipment smelt I don't know if there is any way of removing the smell in between users, but it would be an improvement.', 'There was a drain smell in my en-suite bathroom.'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'lovely environment', 'The facilities are very good', 'Beds are very comfy', 'Atmosphere - home from home.', 'Having a private room helps…', 'It's veyr colourful and makes kids happy.', 'The room was well maintained', 'I love the security protocols for the unit as it feels very safe.', 'Prompt delivery of equipment.', 'grab raIls fItted very excellent servIce', 'They were very helpful In gettIng equIpment that was needed to stay at home.'
+NEGATIVE/ WISHLIST: 'I find the seats in that ambulance rather uncomfortable but this is a very minor niggle.', 'not that comfortable in a chair. Bed would have been better', 'Better bed linen.', 'The reception bit could be made bigger', 'There doesn't' seem to be a lot of space anywhere.',  'When you're there for a very long stay, your body ends up aching because of how poor the mattress and sofa bed quality is', 'More one to ones in private. Maybe single rooms.', 'It would be good if an Ambulance had blinds for privacy.',  'Reinforcing that knocking on the door and walking in without go ahead is  unacceptable.', 'Your building could do with redecorating and new carpets!', 'Fire door propped open with chair.', 'Keep a better check on personal possessions', 'Maintenance issues aren't acted on quickly enough.', 'Steps in garden identified as a risk still to be addressed', 'Making sure enough of correct dressings in the home.', 'There is frequently an issue about having the necessary bandages. The nurses on the front line always resolve this, but they would be assisted by a better supply chain.', 'They could do with up-to-date equipment.'</t>
+  </si>
+  <si>
+    <t>NEGATIVE: 'More Govt. funding to help you do your job better', 'Make resources too alleviate pressure and prevent good staff from leaving or losing love for their job.', 'Add more funding.', ' No staff are at fault instead they are failed by the resources they have.'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'The team have obviously been trained to a an extremely high level.', 'Assessment, advice and support from qualified specialist.', 'Felt very reassured by her attItude and knowledge.', 'Excellent sessIon -evIdence based teachIng.', 'Physio was very knowledgeable and understood my problem.'
+NEGATIVE: 'Hygiene awareness for the staff.', 'A few members of staff could do with more training on compassion and a bit more knowledge on how to handle different types of scenarios.', 'More autism awareness and children with additional needs training needed.', 'The person asking the questions is not medically trained'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSITIVE: 'You are always there on the end of a phone or email.' , 'Good access to staff and was able to contact when needed.', 'am confIdent that If any Issues arIse that I can rIng and they wIll be addressed.'
+Mixed: 'I wasn't given a contact number. I did email the referral centre and they helped.'
+NEGATIVE: 'Sitting on hold for nearly 2 hours is not right ', 'I am begging for help and nobody is helping me. I don't know where to go or who to contact.', 'Takes time to get through and tempted to use 999.', 'You could and should update the information given on the website. The telephone number given was out of date', 'Crisis need to stop asking to phone you back when you are in crisis.'
+</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'There was little waiting time', 'I was taken aback when my psychiatrist was able to see me a lot sooner at a time of crisis', 'most impressive was from arriving in the ambulance to being assessed and treated at a very fast speed', 'Time-response was within two hours of referral.', 'Ambulance arrived quickly'
+NEGATIVE: 'Shorter waiting times for treatment, I will have to wait 18 months before it starts', 'Ambulance could have arrived sooner.', 'A two hour waiting time has led to health problems.', 'The telephone lady said would have to wait, but saying it was a stroke should have been quicker.', 'I got no help, the lady said she doesnt know what to suggest and that I cant get help unless Im at crisis point.'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'Thorough, explained everything well.', 'Questions answered thoroughly.', 'Explained my care to me in a way that I could understand.', 'The staff were very good, and gave me the information that I needed.', 'Everything was explained well. The nurse managed to get the surgeon back out from theatre to speak to me when I raised the fact that I still had some concerns.'
+NEGATIVE: 'Explaining better so I can understand.', 'Language barrier &amp; bad communication.', 'I was repeating the same questions numerous times and still wasn't getting an answer.'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'detailed blood tests are done to diagnose the symptoms','The person helped me get to the right person and got the appointment that I require', 'The operator was very helpful and organised a call with a GP swiftly.', 'good liaison with hospital at home service and GP', ' 'ConsIstency of nurse has been really helpful.', 'Great communication between staff.', 'I was seen promptly, given a diagnosis and future plan of action'
+NEGATIVE: 'had to answer scripted questions which we felt were not relevant.', 'I feel I should have had an MRI scan or lumber puncture to confirm diagnosis', 'Feedback to referrer accurately, and promptly giving an update. Improve communication between primary secondary care.', ‘I was referred 18 months ago but nothing. I was told that the doctor was going to chase up my treatment, she warned me that I may get lost in the system though.', ‘My 17 year old son was told that as he was turning 18 soon there was no point in offering him any treatment. He would have to wait until he was 18 and then get in touch with the adult service.', 'Always seeing different people, continuity would be good. One nurse turned up having not read my notes so she wasn't as helpful as could have been.', 'sometimes miscommunication between nurses and doctors', 'Communication around staff handovers as there has been a lot of repeating myself', 'care plan non existence.', 'The ambulance crew ignored my daughters asthma plan given to me by asthma specialist.'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'Because everyone paid attention to me and provided pain relief in a timely manner', 'Pain control was really good', 'The podiatry lady was very kind and thoughtful of my pain and she made me understand how I could make my pain less'
+NEGATIVE: 'Got rid of pain patch and pain for me, but don't think the tablets that replace the patch are strong enough to get me through the day.', 'left over the weekend with lots of disconfort and pain, had to wait untl monday for the cast to be trimmed and adjusted.', 'I was not happy with how the practitioner dismissed my pain and stated that that pain was simply just in my head.', 'Left for hours without pain relief when in agony, despite repeated requests for pain relief. '</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'the cleaning was thorough', 'Nice ward was clean and tidy. Toilets was clean and the bay in general.', 'The ambulance was very clean.'
+NEGATIVE: 'Be more efficient cleaning wise, it was dirty', 'Wiping bed tables , did this myself as was not done during my 3 day stay.', 'it was unclean &amp; when I complained it wasn't addressed', 'Masks not effective &amp; not worn correctly. No social distancing.'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'Arranged transport for me', 'Excellent safe drivers and so helpful in every way.', 'The driver drove with great consideration to the pain in my arm.', 'I attended with no family members and I was helped from getting patient transport on visit and return.'
+NEGATIVE: 'All ok except no transport home- I have had it in the past', ' 'Other than giving all the drivers bigger cars, not a lot.', 'The taxi drivers do not help getting in and out of car.', 'I was advised to make my own way to hospital despite having a heart rate over 180 beats per minute and breathlessness.', 'The ambulance has terrible suspension as to be uncomfortable', 'Sometime transport not coming on time.', 'Following the sat - new system too rigorously. Took too long for journey home.'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'Able to park safely.', 'Free parking', 'Easy to park'
+NEGATIVE: 'Not much parking available a the relevant area.', 'I was turned away from parking in the main car park even though there was 5 empty disabled bays.', 'More disabled parking or wider spaces.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSITIVE: 'All staff friendly and helpful.', 'nurse very kind, polite', 'Polite, professional, caring', 'All staff were FrIendly and carIng and treated the patIent wIth dIgnIty and respect.'
+MIXED: '90% of staff were fantastic, helpful and supportive Small minority the opposite.', 'We spoke to 3 members of the team. The first 2 were extremely rude, the 3rd gentleman was much more kind.'
+NEGATIVE: 'Be professional, kind and supportive. The doctor who dealt with us was none of these things.', 'The person on the phone was also extremely blunt and sarcastic', 'All your nurses are so RUDE and patronising'
+</t>
+  </si>
+  <si>
+    <t>Positve: 'Department is well staffed.', 'Staff are always there to help if you need then nothing is ever too much trouble.', 'Someone comes quickly when ring call bell.', 'attentive nursing team', 'Always willing to help no matter what it is.'
+MIXED: 'All of the nurses went above and beyond despite them being understaffed', 'The staff were very attentive and encouraging . I did feel that they were under a lot of pressure Due to staff shortages, but they coped well'
+NEGATIVE/ WISHLIST: 'Maybe more nurses on the ward on weekends', 'No play input as no play specialist around.', 'All my requests were responded to, although not  always in a timely manner.', 'needs an overhaul as there seems to be more management than actual medical staff', 'Every A&amp;E to have psychiatric staff available', 'Would be good to have cover for support where staff are off for extended periods due to holidays and sickness.', 'Need more staff from primary health care, vacant position needs to be filled.'</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'Great to have face to face review', 'Enjoy and prefer virtual appointments.', 'I am lucky to have a psychiatrist visit me at home.', 'I was able to stay at work and got the appropriate treatment and advice over the phone. Much better use of my time.'
+MIXED: 'Sometimes the video conferences did not work, but I was happy to take the sessions by phone.' 
+NEGATIVE/ WISHLIST: 'I think facetime appts would be better than just the phone. Sometimes hard to visualise exercise advice.', 'Im autistic and don't like having to talk on the phone.Nothing is in place to accommodate me.', 'Need face to face appts'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSITIVE: 'food been good and plenty to chose from', 'Great facilities to hydrate and feed parents too', 'The paramedics took my mam some food as they were there a long time.', 'food was delicious added bonus'
+MIXED or NEUTRAL: 'Food varies - sometimes good and sometimes not.', 'Food is fair to (only one chips not quite cooked)', 'Food - mostly OK, pork yesterday was great.'
+NEGATIVE/ WISHLIST: 'food got very repetItIve  a varIatIon would of been nIce', 'As a diabetic the high carb food was a disaster', 'not enough fresh fruIt, better salads', 'Meals should be served hot.', 'Quite often patient missed lunch or supper as wasn't asked', 'Only having use of one hand, food should be cut up', 'the confectionary machines could have been nearer to the patients for a treat', 'a toaster in parents kitchen wouls be useful.'
+</t>
+  </si>
+  <si>
+    <t>POSITIVE: 'it was brilliant that I could go to my local surgery instead of having to go to the hospital', 'Convenient location', 'The location is easy to find.', 'Excellent lay out and all well signposted.', 'onhand to direct you where you need to go.', 'directions to ward (in letter very good)'
+NEGATIVE/ WISHLIST: 'My closest hospital would have been my preferred choIce because of vIsItIng.', 'Having to travel 15 miles for a relatively minor matter was not good.', 'Put a map showing location of service, it is hard to find as postcode does not match google maps.','Better directions to the department.', 'Better signage as you drive around', 'Given wrong direction to department which made me late.', 'It would be helpful to have the endocronology department clearly signposted through the hospital'</t>
+  </si>
+  <si>
+    <t>POSITIVE: ‘Very pleased with the service received.’, ‘Thank you’, ‘Very good’, ‘Care was fantastic!’, ‘Cannot think how you could do any better’, 'Everyone was very good.', 'Nice Staff.', 'Staff are great', 'The nurses were superb!', 'A big thank you to staff', 'Amazing staff', 'Angels on this ward', 'Been well looked after'</t>
   </si>
 </sst>
 </file>
@@ -2450,6 +4043,45 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2459,10 +4091,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2492,59 +4127,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2575,10 +4168,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2880,7 +4469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -2916,47 +4505,47 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="F7" s="31" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="F7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
@@ -2990,14 +4579,14 @@
       <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
       <c r="I10" s="22" t="s">
         <v>19</v>
       </c>
@@ -3026,72 +4615,72 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="E13" s="26" t="s">
+      <c r="C13" s="52"/>
+      <c r="E13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="H13" s="37" t="s">
+      <c r="F13" s="54"/>
+      <c r="H13" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="38"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="G16" s="23" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="G16" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="2:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="31" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3113,10 +4702,606 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBEE7D3-4ECA-48BB-A742-BFA7333E6BE7}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="4" width="96" customWidth="1"/>
+    <col min="5" max="5" width="111.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7530062-D4BA-434F-A616-3AF71791E457}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3141,439 +5326,439 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="D15" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="D31" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -3584,24 +5769,25 @@
         <v>98</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D34" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/inst/app/www/FFT-QDC_Framework_MVP_version_20230925.xlsx
+++ b/inst/app/www/FFT-QDC_Framework_MVP_version_20230925.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30cf01616d186177/Documents/Local Githubs/experiencesdashboard/inst/app/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{B224D588-DC53-413E-B753-C2B87B27B03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF505C4-B883-4205-B767-A7197CC0AEFD}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="13_ncr:1_{B224D588-DC53-413E-B753-C2B87B27B03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9D1B1BF-BA08-477E-89D8-80280ED6DE5F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26955" yWindow="3015" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MVP framework" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="177">
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Sub-Category</t>
   </si>
   <si>
     <t>General</t>
@@ -3736,7 +3733,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3746,12 +3743,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3975,7 +3966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4010,16 +4001,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4028,40 +4019,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4070,52 +4055,13 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4127,16 +4073,52 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4467,10 +4449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4481,220 +4463,200 @@
     <col min="10" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="17"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="19" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="41" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="2:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="F3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="24" t="s">
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="42" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="F5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="F7" s="45" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" spans="2:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-    </row>
-    <row r="8" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="13" t="s">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="45" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="48" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="I8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
-      <c r="I10" s="22" t="s">
+    </row>
+    <row r="9" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="I9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="15" t="s">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="48" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="51" t="s">
+      <c r="C11" s="49"/>
+      <c r="E11" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="E13" s="53" t="s">
+      <c r="F11" s="51"/>
+      <c r="H11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="54"/>
-      <c r="H13" s="39" t="s">
+      <c r="I11" s="37"/>
+    </row>
+    <row r="12" spans="2:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="40"/>
-    </row>
-    <row r="14" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
+      <c r="C12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="E12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="F12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="H12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="I12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="26" t="s">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="33" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="G14" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="G16" s="36" t="s">
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="2:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-    </row>
-    <row r="17" spans="2:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="27" t="s">
+      <c r="C15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="D15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="E15" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="G15" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="H15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="I15" s="28" t="s">
         <v>43</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4704,7 +4666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBEE7D3-4ECA-48BB-A742-BFA7333E6BE7}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4721,573 +4683,573 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5317,473 +5279,473 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6064,6 +6026,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -6074,15 +6045,6 @@
     <TaxCatchAll xmlns="cccaf3ac-2de9-44d4-aa31-54302fceb5f7" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6107,6 +6069,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE12F67A-4B63-42E1-A654-2EE0AB95B353}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5042410C-A280-4740-9650-DF5DAF7A7D71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -6123,12 +6093,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE12F67A-4B63-42E1-A654-2EE0AB95B353}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>